--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Penk-Mrgprb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Penk-Mrgprb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,7 +85,13 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Penk</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +528,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.049583</v>
+      </c>
+      <c r="H2">
+        <v>0.148749</v>
+      </c>
+      <c r="I2">
+        <v>0.003300257029073341</v>
+      </c>
+      <c r="J2">
+        <v>0.003300257029073341</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.2516393333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.754918</v>
-      </c>
-      <c r="I2">
-        <v>0.01813138366082569</v>
-      </c>
-      <c r="J2">
-        <v>0.01813138366082569</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2551346666666667</v>
+        <v>0.4500266666666666</v>
       </c>
       <c r="N2">
-        <v>0.765404</v>
+        <v>1.35008</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06420191743022222</v>
+        <v>0.02231367221333333</v>
       </c>
       <c r="R2">
-        <v>0.5778172568719999</v>
+        <v>0.20082304992</v>
       </c>
       <c r="S2">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="T2">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +590,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,28 +605,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H3">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I3">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J3">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2551346666666667</v>
+        <v>0.4500266666666666</v>
       </c>
       <c r="N3">
-        <v>0.765404</v>
+        <v>1.35008</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.354775342072445</v>
+        <v>5.917417591004443</v>
       </c>
       <c r="R3">
-        <v>30.192978078652</v>
+        <v>53.25675831903999</v>
       </c>
       <c r="S3">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="T3">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +652,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,28 +667,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H4">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I4">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J4">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2551346666666667</v>
+        <v>0.4500266666666666</v>
       </c>
       <c r="N4">
-        <v>0.765404</v>
+        <v>1.35008</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1082307619915556</v>
+        <v>0.18504736512</v>
       </c>
       <c r="R4">
-        <v>0.974076857924</v>
+        <v>1.66542628608</v>
       </c>
       <c r="S4">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="T4">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,185 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.8604810000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.581443</v>
+      </c>
+      <c r="I5">
+        <v>0.05727383314107775</v>
+      </c>
+      <c r="J5">
+        <v>0.05727383314107775</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.4500266666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.35008</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.38723939616</v>
+      </c>
+      <c r="R5">
+        <v>3.48515456544</v>
+      </c>
+      <c r="S5">
+        <v>0.05727383314107775</v>
+      </c>
+      <c r="T5">
+        <v>0.05727383314107775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.777349</v>
+      </c>
+      <c r="I6">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J6">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4500266666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.35008</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1166092597688889</v>
+      </c>
+      <c r="R6">
+        <v>1.04948333792</v>
+      </c>
+      <c r="S6">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="T6">
+        <v>0.0172468487270041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.053774</v>
-      </c>
-      <c r="H5">
-        <v>0.161322</v>
-      </c>
-      <c r="I5">
-        <v>0.003874581179587349</v>
-      </c>
-      <c r="J5">
-        <v>0.003874581179587349</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.2551346666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.765404</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.01371961156533333</v>
-      </c>
-      <c r="R5">
-        <v>0.123476504088</v>
-      </c>
-      <c r="S5">
-        <v>0.003874581179587349</v>
-      </c>
-      <c r="T5">
-        <v>0.003874581179587349</v>
+      <c r="G7">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.883714</v>
+      </c>
+      <c r="I7">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J7">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.4500266666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.35008</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.1325649552355556</v>
+      </c>
+      <c r="R7">
+        <v>1.19308459712</v>
+      </c>
+      <c r="S7">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="T7">
+        <v>0.01960674250039005</v>
       </c>
     </row>
   </sheetData>
